--- a/results/VGG10/VGG10 results.xlsx
+++ b/results/VGG10/VGG10 results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCourse(5 delayed 1)\erasure code\SUSTech-Coded-Computation\results\VGG10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CDB19A-35DB-479E-8ED4-55AE80A920C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2C306-5A30-437D-9B6A-33496855C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12168" yWindow="600" windowWidth="10296" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="U86" sqref="U86"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -670,27 +670,31 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="I3" s="4">
         <f>D3-H3</f>
-        <v>0.99509999999999998</v>
+        <v>4.9999999999994493E-4</v>
       </c>
       <c r="J3" s="4">
         <f>H3/D3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="e">
+        <v>0.99949698189134817</v>
+      </c>
+      <c r="K3" s="4">
         <f>H3/E3</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -698,25 +702,29 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>0.94089999999999996</v>
+      </c>
       <c r="I4" s="8">
         <f>D4-H4</f>
-        <v>0.99509999999999998</v>
+        <v>5.3100000000000036E-2</v>
       </c>
       <c r="J4" s="8">
         <f>H4/D4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="e">
+        <v>0.94657947686116695</v>
+      </c>
+      <c r="K4" s="8">
         <f>H4/E4</f>
-        <v>#DIV/0!</v>
+        <v>0.94705586311021628</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -724,25 +732,29 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>0.63049999999999995</v>
+      </c>
       <c r="I5" s="4">
         <f>D5-H5</f>
-        <v>0.99509999999999998</v>
+        <v>0.36350000000000005</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J10" si="0">H5/D5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="e">
+        <v>0.63430583501006033</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" ref="K5:K10" si="1">H5/E5</f>
-        <v>#DIV/0!</v>
+        <v>0.63462506290890786</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,25 +762,29 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>0.1124</v>
+      </c>
       <c r="I6" s="4">
         <f>D6-H6</f>
-        <v>0.99509999999999998</v>
+        <v>0.88159999999999994</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="e">
+        <v>0.11307847082494969</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.11313537996980372</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -776,27 +792,31 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.99050000000000005</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>0.99050000000000005</v>
+      </c>
       <c r="I7" s="4">
         <f>D7-H7</f>
-        <v>0.98899999999999999</v>
+        <v>8.9999999999990088E-4</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="e">
+        <v>0.99909219285858397</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -804,25 +824,29 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.99050000000000005</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>0.93110000000000004</v>
+      </c>
       <c r="I8" s="11">
         <f>D8-H8</f>
-        <v>0.98899999999999999</v>
+        <v>6.0299999999999909E-2</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="11" t="e">
+        <v>0.93917692152511612</v>
+      </c>
+      <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.94003028773346797</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -830,25 +854,29 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.99050000000000005</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>0.7</v>
+      </c>
       <c r="I9" s="4">
         <f>D9-H9</f>
-        <v>0.98899999999999999</v>
+        <v>0.29139999999999999</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="e">
+        <v>0.70607222110147261</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.70671378091872783</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -856,25 +884,29 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.99050000000000005</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>0.1135</v>
+      </c>
       <c r="I10" s="4">
         <f>D10-H10</f>
-        <v>0.98899999999999999</v>
+        <v>0.8778999999999999</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="e">
+        <v>0.11448456727859593</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.11458859162039374</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -923,27 +955,31 @@
         <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="I12" s="4">
         <f>D12-H12</f>
-        <v>0.99509999999999998</v>
+        <v>1.0999999999999899E-3</v>
       </c>
       <c r="J12" s="4">
         <f>H12/D12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="e">
+        <v>0.99889336016096586</v>
+      </c>
+      <c r="K12" s="4">
         <f>H12/E12</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -951,25 +987,29 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>0.98740000000000006</v>
+      </c>
       <c r="I13" s="8">
         <f t="shared" ref="I13:I18" si="2">D13-H13</f>
-        <v>0.99509999999999998</v>
+        <v>6.5999999999999392E-3</v>
       </c>
       <c r="J13" s="8">
         <f>H13/D13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="8" t="e">
+        <v>0.99336016096579483</v>
+      </c>
+      <c r="K13" s="8">
         <f>H13/E13</f>
-        <v>#DIV/0!</v>
+        <v>0.99446067076241318</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -977,25 +1017,29 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <v>0.97209999999999996</v>
+      </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>0.99509999999999998</v>
+        <v>2.1900000000000031E-2</v>
       </c>
       <c r="J14" s="8">
         <f>H14/D14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8" t="e">
+        <v>0.97796780684104623</v>
+      </c>
+      <c r="K14" s="8">
         <f>H14/E14</f>
-        <v>#DIV/0!</v>
+        <v>0.97905126397421693</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1003,25 +1047,29 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="5">
         <v>3</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>0.9244</v>
+      </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>0.99509999999999998</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15:J25" si="3">H15/D15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="e">
+        <v>0.92997987927565395</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" ref="K15:K25" si="4">H15/E15</f>
-        <v>#DIV/0!</v>
+        <v>0.93101017222278171</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1029,25 +1077,29 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>4</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>0.83630000000000004</v>
+      </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>0.99509999999999998</v>
+        <v>0.15769999999999995</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="e">
+        <v>0.84134808853118714</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.8422801893443449</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1055,25 +1107,29 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>0.61419999999999997</v>
+      </c>
       <c r="I17" s="4">
         <f t="shared" si="2"/>
-        <v>0.99509999999999998</v>
+        <v>0.37980000000000003</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="e">
+        <v>0.61790744466800807</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.61859200322288244</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,25 +1137,29 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="4">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.9929</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>6</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>0.1124</v>
+      </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>0.99509999999999998</v>
+        <v>0.88159999999999994</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="e">
+        <v>0.11307847082494969</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.11320374660086614</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,27 +1167,31 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="I19" s="4">
         <f>D19-H19</f>
-        <v>0.98899999999999999</v>
+        <v>1.4999999999999458E-3</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="e">
+        <v>0.9984869880976398</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,25 +1199,29 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>0.98670000000000002</v>
+      </c>
       <c r="I20" s="11">
         <f t="shared" ref="I20:I25" si="5">D20-H20</f>
-        <v>0.98899999999999999</v>
+        <v>4.6999999999999265E-3</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="11" t="e">
+        <v>0.99525922937260447</v>
+      </c>
+      <c r="K20" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.99676735023739771</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1161,25 +1229,29 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="10">
         <v>2</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>0.96909999999999996</v>
+      </c>
       <c r="I21" s="11">
         <f t="shared" si="5"/>
-        <v>0.98899999999999999</v>
+        <v>2.2299999999999986E-2</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="11" t="e">
+        <v>0.97750655638491024</v>
+      </c>
+      <c r="K21" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.97898777654308511</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1187,25 +1259,29 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="5">
         <v>3</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>0.9304</v>
+      </c>
       <c r="I22" s="4">
         <f t="shared" si="5"/>
-        <v>0.98899999999999999</v>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="e">
+        <v>0.93847084930401459</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.93989291847661383</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1213,25 +1289,29 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="5">
         <v>4</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>0.83689999999999998</v>
+      </c>
       <c r="I23" s="4">
         <f t="shared" si="5"/>
-        <v>0.98899999999999999</v>
+        <v>0.15449999999999997</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="e">
+        <v>0.84415977405688924</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.84543893322557828</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,25 +1319,29 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="5">
         <v>5</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>0.60560000000000003</v>
+      </c>
       <c r="I24" s="4">
         <f t="shared" si="5"/>
-        <v>0.98899999999999999</v>
+        <v>0.38579999999999992</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="e">
+        <v>0.61085333871293124</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.61177896757248207</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,25 +1349,29 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.9899</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="5">
         <v>6</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>0.1135</v>
+      </c>
       <c r="I25" s="4">
         <f t="shared" si="5"/>
-        <v>0.98899999999999999</v>
+        <v>0.8778999999999999</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4" t="e">
+        <v>0.11448456727859593</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.11465804626729974</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
